--- a/biology/Botanique/Jardin_sauvage/Jardin_sauvage.xlsx
+++ b/biology/Botanique/Jardin_sauvage/Jardin_sauvage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un jardin sauvage est un jardin dans lequel la conservation de la nature joue un rôle important. Il reproduit, à son échelle, des milieux naturels locaux (biotopes) afin d'offrir un refuge à la vie sauvage, tant végétale qu'animale. Sa caractéristique principale est une forte présence de végétaux indigènes, qui servent de support à la faune sauvage. Un jardin sauvage a donc une vocation de refuge naturel, qu'il soit créé de toutes pièces ou que l'on ait simplement laissé les espèces s'établir d'elles-mêmes. Comme tout jardin, il fait néanmoins l'objet d'une gestion, puisque, d'une part, il doit rester attrayant pour le jardinier et sa famille ou pour le public (aspects récréatif et esthétique) et que, d'autre part, les végétaux les mieux adaptés à la situation du jardin risquent de tout envahir si leur expansion n'est pas un tant soit peu contrôlée.
-Les jardins sauvages sont souvent également appelés « jardins naturels »[1]. Toutefois, ce terme est assez vague et peut aussi être employé comme synonyme de « jardin écologique » ou « biologique », ou désigner simplement un jardin d'aspect « libre », ne faisant pas l'objet d'un entretien strict. Ces divers termes se recoupent et sont liés à une même philosophie du jardinage, plus respectueuse de l'environnement au sens large. L'appellation « jardin sauvage » met cependant l'accent sur la place accordée aux espèces végétales indigènes et à la création de milieux naturels, afin de contribuer à la sauvegarde de la biodiversité régionale. « Jardin nature admise » peut être considéré comme un bon synonyme.
+Les jardins sauvages sont souvent également appelés « jardins naturels ». Toutefois, ce terme est assez vague et peut aussi être employé comme synonyme de « jardin écologique » ou « biologique », ou désigner simplement un jardin d'aspect « libre », ne faisant pas l'objet d'un entretien strict. Ces divers termes se recoupent et sont liés à une même philosophie du jardinage, plus respectueuse de l'environnement au sens large. L'appellation « jardin sauvage » met cependant l'accent sur la place accordée aux espèces végétales indigènes et à la création de milieux naturels, afin de contribuer à la sauvegarde de la biodiversité régionale. « Jardin nature admise » peut être considéré comme un bon synonyme.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Philosophie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La notion de « jardin sauvage » remonte au XIXe siècle et est attribuée au jardinier irlandais William Robinson (en) (1838-1935), auteur de The Wild Garden (1870)[2]. Celui-ci rompt avec le conformisme des jardins de l'époque et promeut une forme de jardinage qui accorde une place aux fleurs rustiques et les laisse se naturaliser au lieu de les contrôler strictement. Le jardin acquiert ainsi un caractère plus naturel, plus romantique.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La notion de « jardin sauvage » remonte au XIXe siècle et est attribuée au jardinier irlandais William Robinson (en) (1838-1935), auteur de The Wild Garden (1870). Celui-ci rompt avec le conformisme des jardins de l'époque et promeut une forme de jardinage qui accorde une place aux fleurs rustiques et les laisse se naturaliser au lieu de les contrôler strictement. Le jardin acquiert ainsi un caractère plus naturel, plus romantique.
 La dimension de refuge naturel qui s'est greffée sur le concept de W. Robinson émane du constat que l'espace réservé à la vie sauvage se réduit sans cesse. Sous la pression des activités humaines, les biotopes naturels sont détruits ou modifiés. Dans l'esprit de nombreuses personnes, la nature a sa place - et la trouve - en dehors des zones urbanisées. Or, dans les régions du globe à forte densité démographique, ce n'est souvent plus le cas[réf. nécessaire]. Les zones rurales, forestières et côtières ont été à ce point modifiées en vue de la satisfaction des besoins humains que le qualificatif de « naturel » ou « semi-naturel » ne peut plus leur être appliqué. Trop souvent, la forêt n'est envisagée que sous l'angle économique et se compose d'un nombre limité d'essences, exotiques dans le pire des cas (p.ex. épicéa en Belgique, eucalyptus en région méditerranéenne) ; l'agriculture intensive transforme le paysage en gigantesques monocultures arrosées de pesticides et d'engrais ; zones humides, friches, dunes, landes, berges de rivières, parcelles de nature encore intacte sont détruites, morcelées ou modifiées pour favoriser des activités « rentables » (habitat « extensif », tourisme, agriculture, navigation fluviale, captage d'eau pour les villes et l'agriculture, etc.). La nécessité de créer des réserves naturelles, strictement protégées, en témoigne.
 Or, la superficie de ces réserves est bien trop réduite pour compenser la perte d'espace pour la vie sauvage. De plus, elles sont éloignées les unes des autres, ce qui réduit les possibilités de dispersion des espèces végétales et animales et, par là, les possibilités de brassage génétique. Sans celui-ci, les populations, en particulier animales, risquent de s'affaiblir et de dégénérer. D'où l'idée de laisser une place à la nature dans des zones vertes strictement liées à un usage humain mais n'étant pas soumises à des impératifs de productivité, à savoir les parcs et les jardins publics et privés, qui peuvent représenter une surface non négligeable des zones urbanisées. Cette philosophie peut également s'appliquer aux bermes d'autoroutes, bords de chemins et petits éléments de verdure urbaine, tels que les ronds-points. On crée ainsi des mini-réserves et des « couloirs » permettant le déplacement et la dissémination des espèces, qui viennent compléter le réseau formé par les talus de chemin de fer et les terrains vagues.
 </t>
@@ -545,7 +559,9 @@
           <t>Grands principes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La pratique du jardinage « nature admise » peut être résumée en quelques principes fondamentaux :
 renoncer à l'utilisation de produits toxiques pour la faune et la flore : engrais chimiques et pesticides de toutes sortes (insecticides, fongicides, anti-mousses…) ;
@@ -585,7 +601,9 @@
           <t>Milieux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pour offrir un espace diversifié à la vie sauvage, un jardin sauvage peut présenter différents types de milieux accueillant chacun une flore et une faune spécifiques :
 une zone boisée, avec divers étages de végétation (strate herbacée, arbustes, plantes grimpantes, arbres de haut jet). En fonction de la superficie du jardin, on privilégie des essences plus ou moins hautes ;
@@ -620,7 +638,9 @@
           <t>Choix des végétaux</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Puisqu'un jardin sauvage reproduit l'environnement naturel de la région qui l'entoure, il abrite en majorité des plantes indigènes. Celles-ci accueillent toujours un nombre plus élevé d'espèces animales que les espèces « exotiques ». En effet, elles sont en relation étroite avec les insectes et autres animaux de la région, avec lesquels elles évoluent depuis des millénaires. Ainsi, les inflorescences des végétaux d'une région donnée sont parfaitement adaptées aux pollinisateurs (insectes, oiseaux, mammifères) de cette même région, qui sont attirés par leur nectar et leur pollen ; il en va de même de leurs fruits, dont les consommateurs disséminent les graines.
 Les plantes indigènes constituent donc la base des pyramides ou chaînes alimentaires. La dépendance la plus forte vis-à-vis des plantes indigènes se situe au niveau des insectes, et plus particulièrement de leurs larves ; pour se nourrir, ces dernières dépendent strictement de la présence de végétaux particuliers, voire d'une seule et unique espèce. Or, plus les insectes sont nombreux, plus le jardin attirera d'oiseaux, et ainsi de suite. En résumé, une grande diversité de plantes indigènes favorise une grande diversité d'espèces animales qui se nourrissent les unes des autres ; de la sorte, aucune espèce ne devient abondante au point de nuire à la végétation. Cet équilibre entre ravageurs et prédateurs est recherché par les partisans de l'agriculture et du jardinage biologiques.
@@ -657,7 +677,9 @@
           <t>Animaux, abris et nourrissage</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">S'agissant des animaux, le mot d'ordre est simple : il ne faut procéder à aucune introduction. Tout d'abord, de nombreuses espèces sont protégées et il est interdit de déplacer les individus (même au stade de l'œuf). En outre, il est impossible d'être certain que le jardin conviendra à l'espèce, et l'introduction risque de se solder par un échec. Enfin, certains animaux peuvent modifier fortement l'équilibre écologique et nuire à la biodiversité ; il est ainsi fortement déconseillé d'introduire poissons et canards dans une mare de surface réduite. Si le jardin convient à certaines espèces animales, elles y viendront d'elles-mêmes et s'y implanteront durablement — pour autant que les animaux domestiques les laissent tranquilles.
 Pour attirer un maximum de vie animale sauvage, toutes sortes d'aménagements sont possibles : plates-bandes de fleurs riches en nectar, carré de tournesols et autres plantes fournissant en abondance des graines appréciées des oiseaux, table de nourrissage et mangeoires (uniquement en hiver, car le type de nourriture généralement proposé ne convient pas au nourrissage des jeunes), nichoirs pour différentes espèces d'oiseaux, matériaux de construction pour les nids (boue, mousses, restes de laine…), abris à hérissons, à insectes et à chauves-souris… Le jardinier peut également multiplier à l'envi toutes sortes de micro-milieux favorables à la diversité de la vie sauvage : tas de bois, de feuilles mortes, de pierres, petits fagots de tiges creuses, talus secs et creux humides, souche ou tronc d'arbre mort qui sera colonisé par les champignons… Lorsque le jardin est entouré de murs, ceux-ci peuvent être couverts de plantes grimpantes. Un tas de compost abrite une foule d'animaux minuscules et sert de garde-manger aux insectivores du jardin.
@@ -689,7 +711,9 @@
           <t>Entretien</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La notion de jardin sauvage peut apparaître comme un contresens, un espace jardiné (dessiné, cultivé, contrôlé) étant l'opposé d'un espace sauvage, où l'homme n'intervient pas. Toutefois, si l'on souhaite maintenir une certaine diversité de milieux, il est nécessaire, à l'instar de ce qui se fait dans certaines réserves naturelles, d'effectuer un minimum de gestion. Dans le cas contraire, le jardin pourrait ne plus contenir, au bout d'un certain temps, qu'un nombre limité d'espèces dominantes. La gestion permet également de conserver un espace agréable pour le jardinier et sa famille grâce à l'entretien de chemins, d'une pelouse pour les jeux des enfants, d'aires de repos, etc. L'entretien est d'autant plus nécessaire que la surface du milieu concerné est petite, et donc sensible à l'envahissement par l'une ou l'autre espèce.
 La règle primordiale à respecter est de ne pas empoisonner le jardin avec des pesticides (insecticides, fongicides, etc.) puisque l'objectif est de favoriser la vie sauvage. Il est préférable d'envisager l'attaque massive d'un « nuisible » comme symptomatique d'un déséquilibre à corriger (plante recevant trop peu de lumière ou inadaptée au sol, trop faible diversité des végétaux, sol nu permettant aux spores de champignons d'atteindre les feuillages lorsque les gouttes de pluie rebondissent…).
@@ -733,7 +757,9 @@
           <t>Avantages</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Outre la conservation de la nature et de la biodiversité, le jardin sauvage présente d'autres aspects positifs.
 Un jardin sauvage est à la fois un jardin écologique et un jardin économique. L'absence d'utilisation de pesticides, d'arrosage intensif et de recours aux engrais chimiques en font en effet un jardin non polluant et respectueux des ressources en eau. L'usage parcimonieux de la tondeuse à gazon et du taille-haie contribue à la fois au calme du quartier et aux économies d'énergie. Le prix des espèces indigènes est relativement peu élevé, et même nul si l'on privilégie l'implantation spontanée, la récolte de graines, le bouturage et les échanges avec d'autres jardiniers.
@@ -769,7 +795,9 @@
           <t>Jardins sauvages ouverts au public</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>En Belgique
 Jardin modèle Natagora au Jardin Jean-Félix Hap à Etterbeek
